--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori1/123/word_level_predictions_123.xlsx
@@ -2374,366 +2374,366 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>5</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6794,106 +6794,106 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9793,11 +9793,11 @@
         </is>
       </c>
       <c r="I180" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9845,11 +9845,11 @@
         </is>
       </c>
       <c r="I181" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9897,11 +9897,11 @@
         </is>
       </c>
       <c r="I182" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9949,11 +9949,11 @@
         </is>
       </c>
       <c r="I183" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10001,11 +10001,11 @@
         </is>
       </c>
       <c r="I184" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K184" s="2" t="b">
@@ -10053,11 +10053,11 @@
         </is>
       </c>
       <c r="I185" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K185" s="2" t="b">
@@ -10105,11 +10105,11 @@
         </is>
       </c>
       <c r="I186" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K186" s="2" t="b">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="I187" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K187" s="2" t="b">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="I188" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K188" s="2" t="b">
@@ -10261,11 +10261,11 @@
         </is>
       </c>
       <c r="I189" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K189" s="2" t="b">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10313,11 +10313,11 @@
         </is>
       </c>
       <c r="I190" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11526,314 +11526,314 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>18</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>18</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>18</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>2</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>18</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>3</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>18</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>4</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>18</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>5</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>18</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>18</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>9</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>18</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>10</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>18</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>11</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12202,314 +12202,314 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>19</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>19</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>19</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>2</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>19</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>19</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>4</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>19</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>5</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori1/123/word_level_predictions_123.xlsx
@@ -2374,366 +2374,366 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6794,106 +6794,106 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9793,11 +9793,11 @@
         </is>
       </c>
       <c r="I180" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9845,11 +9845,11 @@
         </is>
       </c>
       <c r="I181" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9897,11 +9897,11 @@
         </is>
       </c>
       <c r="I182" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9949,11 +9949,11 @@
         </is>
       </c>
       <c r="I183" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10001,11 +10001,11 @@
         </is>
       </c>
       <c r="I184" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K184" s="2" t="b">
@@ -10053,11 +10053,11 @@
         </is>
       </c>
       <c r="I185" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K185" s="2" t="b">
@@ -10105,11 +10105,11 @@
         </is>
       </c>
       <c r="I186" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K186" s="2" t="b">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="I187" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K187" s="2" t="b">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="I188" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K188" s="2" t="b">
@@ -10261,11 +10261,11 @@
         </is>
       </c>
       <c r="I189" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K189" s="2" t="b">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10313,11 +10313,11 @@
         </is>
       </c>
       <c r="I190" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11526,314 +11526,314 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="inlineStr">
+      <c r="D214" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
+      <c r="I214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
+      <c r="I215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>1</v>
-      </c>
-      <c r="E215" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
+      <c r="I217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
+      <c r="I218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>2</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>18</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>3</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>18</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>4</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>18</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>5</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>8</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>9</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>18</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>10</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>18</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12202,314 +12202,314 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="D227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="I227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
+      <c r="I228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
+      <c r="I230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
+      <c r="I231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>2</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>19</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>19</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>4</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>19</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>5</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
